--- a/inst/extdata/toyFiles/FROC/incorrectCaseIDsInFP.xlsx
+++ b/inst/extdata/toyFiles/FROC/incorrectCaseIDsInFP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t>CaseID</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>FROC</t>
   </si>
 </sst>
 </file>
@@ -846,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1050,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1061,9 +1070,10 @@
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1079,8 +1089,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1096,8 +1109,11 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1113,8 +1129,11 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1130,8 +1149,9 @@
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>70</v>
       </c>
@@ -1147,8 +1167,9 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>70</v>
       </c>
@@ -1164,8 +1185,9 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>71</v>
       </c>
@@ -1181,8 +1203,9 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>72</v>
       </c>
@@ -1198,8 +1221,9 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>72</v>
       </c>
@@ -1215,8 +1239,9 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>72</v>
       </c>
@@ -1232,8 +1257,9 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>73</v>
       </c>
@@ -1249,8 +1275,9 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>74</v>
       </c>
@@ -1266,29 +1293,31 @@
       <c r="E12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
